--- a/iwomp16/results.xlsx
+++ b/iwomp16/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="560" windowWidth="33600" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="4060" yWindow="0" windowWidth="33600" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Number of OpenMP Threads per PThreads (total 2 PThreads)</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>PASSITVE(SUSPEND)</t>
+  </si>
+  <si>
+    <t>Policies</t>
   </si>
 </sst>
 </file>
@@ -314,8 +317,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,7 +515,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -567,6 +574,8 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -625,6 +634,8 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14003,7 +14014,7 @@
   <dimension ref="B2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14035,7 +14046,9 @@
       <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
@@ -14406,7 +14419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B16:AY38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B22"/>
     </sheetView>
   </sheetViews>

--- a/iwomp16/results.xlsx
+++ b/iwomp16/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="0" windowWidth="33600" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="4060" yWindow="0" windowWidth="33600" windowHeight="19120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Number of OpenMP Threads per PThreads (total 2 PThreads)</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Policies</t>
+  </si>
+  <si>
+    <t>ACTIVE SPIN_BUSY</t>
+  </si>
+  <si>
+    <t>ACTIVE SPIN_PAUSE</t>
+  </si>
+  <si>
+    <t>PASSIVE SPIN_YIELD</t>
+  </si>
+  <si>
+    <t>PASSIVE SUSPEND</t>
   </si>
 </sst>
 </file>
@@ -317,8 +329,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,7 +529,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -576,6 +590,7 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -636,6 +651,7 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5351,7 +5367,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPIN_BUSY</c:v>
+                  <c:v>ACTIVE SPIN_BUSY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5919,7 +5935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPIN_PAUSE</c:v>
+                  <c:v>ACTIVE SPIN_PAUSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6487,7 +6503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPIN_YIELD</c:v>
+                  <c:v>PASSIVE SPIN_YIELD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7055,7 +7071,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUSPEND</c:v>
+                  <c:v>PASSIVE SUSPEND</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7670,7 +7686,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.108113558291749"/>
           <c:y val="0.153676426865643"/>
-          <c:w val="0.12725111672646"/>
+          <c:w val="0.183050722015881"/>
           <c:h val="0.217749498612183"/>
         </c:manualLayout>
       </c:layout>
@@ -7737,7 +7753,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPIN_BUSY</c:v>
+                  <c:v>ACTIVE SPIN_BUSY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8131,7 +8147,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPIN_PAUSE</c:v>
+                  <c:v>ACTIVE SPIN_PAUSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8525,7 +8541,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPIN_YIELD</c:v>
+                  <c:v>PASSIVE SPIN_YIELD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8919,7 +8935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUSPEND</c:v>
+                  <c:v>PASSIVE SUSPEND</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9370,7 +9386,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.0886468906427825"/>
           <c:y val="0.145812671474318"/>
-          <c:w val="0.11214119157852"/>
+          <c:w val="0.161315095806157"/>
           <c:h val="0.218625260922108"/>
         </c:manualLayout>
       </c:layout>
@@ -14013,7 +14029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -14419,7 +14435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B16:AY38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B22"/>
     </sheetView>
   </sheetViews>
@@ -17643,8 +17659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:EV11"/>
   <sheetViews>
-    <sheetView topLeftCell="G9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="CP7" sqref="CP7"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="CO8" sqref="CO8:CO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17660,7 +17676,7 @@
     <col min="86" max="87" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="89" max="92" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18" bestFit="1" customWidth="1"/>
     <col min="94" max="109" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="111" max="116" width="7.1640625" bestFit="1" customWidth="1"/>
@@ -18282,7 +18298,7 @@
     </row>
     <row r="8" spans="4:152">
       <c r="D8" s="22" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>1.2999999999999999E-2</v>
@@ -18549,7 +18565,7 @@
         <v>23.984000000000002</v>
       </c>
       <c r="CO8" s="22" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="CP8">
         <v>23.154</v>
@@ -18731,7 +18747,7 @@
     </row>
     <row r="9" spans="4:152">
       <c r="D9" s="22" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>1.2E-2</v>
@@ -18998,7 +19014,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="CO9" s="22" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CP9">
         <v>0.60899999999999999</v>
@@ -19180,7 +19196,7 @@
     </row>
     <row r="10" spans="4:152">
       <c r="D10" s="22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>1.2E-2</v>
@@ -19447,7 +19463,7 @@
         <v>0.49</v>
       </c>
       <c r="CO10" s="22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="CP10">
         <v>0.51700000000000002</v>
@@ -19629,7 +19645,7 @@
     </row>
     <row r="11" spans="4:152">
       <c r="D11" s="22" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -19896,7 +19912,7 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="CO11" s="22" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="CP11">
         <v>0.95</v>
